--- a/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
@@ -264,18 +264,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈勍离职后接手的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李栋被调离后重新接手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傻逼老李和老曹搞的愚蠢的测试组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>至今</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +341,6 @@
   </si>
   <si>
     <t>可摸鱼天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截至2021/2/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +359,19 @@
     <t>从20210330开始，为了给甘路教训，只需要每两周确认需求。
 即第一周甘路的需求删除了，不需要确认。
 只需求确认第二周的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2021/5/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻逼李霄飞和戆大曹小波
+搞的愚蠢的端到端测试组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈勍离职后接手的工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -564,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,10 +909,10 @@
       <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
@@ -926,14 +930,14 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2">
         <f>5-I4</f>
         <v>1.5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,30 +956,30 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2">
         <f>B9+C9+D9+E9+F9</f>
         <v>3.5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1000,18 +1004,18 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
@@ -1020,19 +1024,19 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1100,7 +1104,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,7 +1185,7 @@
     <col min="3" max="3" width="44.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -1225,7 +1229,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3">
         <v>419</v>
@@ -1234,7 +1238,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3">
         <f>E2+E4</f>
@@ -1279,7 +1283,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3">
         <v>174</v>
@@ -1292,7 +1296,7 @@
       </c>
       <c r="I4" s="6">
         <f>E5+E7</f>
-        <v>428</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,7 +1307,7 @@
         <v>43798</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>53</v>
@@ -1312,12 +1316,12 @@
         <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>43799</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>44046</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>54</v>
@@ -1333,15 +1337,15 @@
       <c r="E6" s="11">
         <v>247</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>61</v>
+      <c r="F6" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2">
         <f>I2+I3+I4</f>
-        <v>1408</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1349,19 +1353,19 @@
         <v>44047</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="6">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
@@ -356,12 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从20210330开始，为了给甘路教训，只需要每两周确认需求。
-即第一周甘路的需求删除了，不需要确认。
-只需求确认第二周的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>截至2021/5/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +366,13 @@
   </si>
   <si>
     <t>陈勍离职后接手的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从20210330开始，为了给甘路教训，只需要每两周确认需求
+即第一周甘路的需求删除了，不需要确认。
+只需求确认第二周的。
+从20210622开始，为了不让施慕垚这个大戆卵话多，除了注明延期理由的需求写在备注里，其余的一概不写。尤其是施慕垚大戆卵的需求！问到就说是来不及开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,6 +558,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,13 +923,13 @@
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
@@ -1127,7 +1128,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,7 +1317,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1337,11 +1338,11 @@
       <c r="E6" s="11">
         <v>247</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>84</v>
+      <c r="F6" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2">
         <f>I2+I3+I4</f>
@@ -1411,7 +1412,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1429,7 +1430,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1442,16 +1443,16 @@
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1471,7 +1472,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>

--- a/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
@@ -372,6 +372,7 @@
     <t>从20210330开始，为了给甘路教训，只需要每两周确认需求
 即第一周甘路的需求删除了，不需要确认。
 只需求确认第二周的。
+从2022开始，不再统计甘路的需求，以作为轻松，20211230这周为最后一次让甘路确认
 从20210622开始，为了不让施慕垚这个大戆卵话多，除了注明延期理由的需求写在备注里，其余的一概不写。尤其是施慕垚大戆卵的需求！问到就说是来不及开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1128,7 +1129,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>

--- a/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
@@ -369,10 +369,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从20210330开始，为了给甘路教训，只需要每两周确认需求
-即第一周甘路的需求删除了，不需要确认。
-只需求确认第二周的。
-从2022开始，不再统计甘路的需求，以作为轻松，20211230这周为最后一次让甘路确认
+    <t>自20211119从甘路这边得知，他的需求要上线会主动申请提出上线的，那么从20211123开始（上线版本为20211207版本），不再统计任何甘路的需求，遇到就直接删了即可！这样就可减轻一大半工作强度了！
 从20210622开始，为了不让施慕垚这个大戆卵话多，除了注明延期理由的需求写在备注里，其余的一概不写。尤其是施慕垚大戆卵的需求！问到就说是来不及开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1129,7 +1126,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>

--- a/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="只负责需求统计" sheetId="2" r:id="rId1"/>
-    <sheet name="需求统计说明" sheetId="3" r:id="rId2"/>
-    <sheet name="在电信工作的阶段时间汇总" sheetId="4" r:id="rId3"/>
-    <sheet name="需求统计和测试工作都需要做的(无需了)" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="20200803 - 20220124 负责需求统计" sheetId="2" r:id="rId1"/>
+    <sheet name="20220124 后负责需求统计" sheetId="5" r:id="rId2"/>
+    <sheet name="需求统计说明" sheetId="3" r:id="rId3"/>
+    <sheet name="在电信工作的阶段时间汇总" sheetId="4" r:id="rId4"/>
+    <sheet name="需求统计和测试工作都需要做的(无需了)" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">在电信工作的阶段时间汇总!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">在电信工作的阶段时间汇总!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,19 +293,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送IBP和综资的需求进行测试确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整理要测试的需求并发送测试计划邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交需求反馈文档并发送上线计划邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因周五下午需要提交需求反馈文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +360,85 @@
   <si>
     <t>自20211119从甘路这边得知，他的需求要上线会主动申请提出上线的，那么从20211123开始（上线版本为20211207版本），不再统计任何甘路的需求，遇到就直接删了即可！这样就可减轻一大半工作强度了！
 从20210622开始，为了不让施慕垚这个大戆卵话多，除了注明延期理由的需求写在备注里，其余的一概不写。尤其是施慕垚大戆卵的需求！问到就说是来不及开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因周四下午需要提交终稿需求反馈文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因周五下午需要提交定稿需求反馈文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件给IBP和综资的负责人，进行需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待IBP和综资
+邮件需求反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件给IBP和综资的负责人，进行需求确认，截至下周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求室发出终稿需求邮件，并登录ITSM系统内查询记录各个需求对应的负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求室发出定稿需求邮件，并登录ITSM系统内查询记录各个需求对应的负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交终稿反馈文档并发送上线计划邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交定稿反馈文档并发送上线计划邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件给IBP和综资确认完后其他剩余需求的负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待QQ和邮件的需求反馈回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待QQ和邮件的需求反馈回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待IBP和综资
+邮件需求反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在QQ上询问IBP和综资确认完后其他剩余需求的负责人，如YZ,DYX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二下午有面试：当晚或周三上午发邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五下午有面试：
+周一上午整理需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,13 +939,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -911,7 +982,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
@@ -929,23 +1000,23 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2">
         <f>5-I4</f>
         <v>1.5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -955,30 +1026,30 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2">
         <f>B9+C9+D9+E9+F9</f>
         <v>3.5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,18 +1074,18 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
@@ -1023,19 +1094,19 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1064,6 +1135,213 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2">
+        <f>5-I4</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2">
+        <f>B9+C9+D9+E9+F9</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1103,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1415,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,7 +1429,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -1315,7 +1593,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1337,10 +1615,10 @@
         <v>247</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2">
         <f>I2+I3+I4</f>
@@ -1375,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>

--- a/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/Jobs/20200803开始的新工作作息.xlsx
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截至2021/5/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>傻逼李霄飞和戆大曹小波
 搞的愚蠢的端到端测试组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +435,10 @@
   <si>
     <t>周五下午有面试：
 周一上午整理需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2022/1/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -1040,7 +1040,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>66</v>
@@ -1049,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1176,16 +1176,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1216,19 +1216,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>73</v>
@@ -1245,14 +1245,14 @@
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1280,13 +1280,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>70</v>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I4" s="6">
         <f>E5+E7</f>
-        <v>496</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1615,14 +1615,14 @@
         <v>247</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2">
         <f>I2+I3+I4</f>
-        <v>1476</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="6">
-        <v>276</v>
+        <v>545</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>59</v>
